--- a/Code/Results/Cases/Case_0_176/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_176/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1464464995190724</v>
+        <v>0.04815801081838345</v>
       </c>
       <c r="D2">
-        <v>0.05471095872011489</v>
+        <v>0.08424054524450497</v>
       </c>
       <c r="E2">
-        <v>0.1042525509867467</v>
+        <v>0.04443085484498965</v>
       </c>
       <c r="F2">
-        <v>2.702706968637813</v>
+        <v>2.114851626990827</v>
       </c>
       <c r="G2">
-        <v>0.0007749310353381677</v>
+        <v>0.002494564884047172</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.54699405083818</v>
+        <v>2.204494428052158</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.334473312832102</v>
+        <v>0.5382924935363036</v>
       </c>
       <c r="N2">
-        <v>1.087372191883944</v>
+        <v>1.811455330370194</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1256140714904888</v>
+        <v>0.04278531419993215</v>
       </c>
       <c r="D3">
-        <v>0.05358764944875816</v>
+        <v>0.08441390018681716</v>
       </c>
       <c r="E3">
-        <v>0.08976665521914029</v>
+        <v>0.0410073458305682</v>
       </c>
       <c r="F3">
-        <v>2.39959889248972</v>
+        <v>2.053386877792008</v>
       </c>
       <c r="G3">
-        <v>0.0007858240564034649</v>
+        <v>0.002500996984734648</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.766606616456727</v>
+        <v>2.015053012493297</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.146710190728101</v>
+        <v>0.4929787337973153</v>
       </c>
       <c r="N3">
-        <v>1.112351096307549</v>
+        <v>1.822283627367696</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1131124328016995</v>
+        <v>0.03950802919261776</v>
       </c>
       <c r="D4">
-        <v>0.05309686842112882</v>
+        <v>0.0845643176267501</v>
       </c>
       <c r="E4">
-        <v>0.08115362550445937</v>
+        <v>0.03893700104591247</v>
       </c>
       <c r="F4">
-        <v>2.221021467671562</v>
+        <v>2.017091007264014</v>
       </c>
       <c r="G4">
-        <v>0.0007926452483232841</v>
+        <v>0.002505147741458703</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.298304062623913</v>
+        <v>1.900055044942292</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.034233626647364</v>
+        <v>0.4654915336702103</v>
       </c>
       <c r="N4">
-        <v>1.130034783210903</v>
+        <v>1.829572956835449</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1080794168867243</v>
+        <v>0.03817774873766666</v>
       </c>
       <c r="D5">
-        <v>0.05294149302199713</v>
+        <v>0.08463657251753887</v>
       </c>
       <c r="E5">
-        <v>0.07770428777114446</v>
+        <v>0.03810110082769214</v>
       </c>
       <c r="F5">
-        <v>2.149908695865165</v>
+        <v>2.002659378696222</v>
       </c>
       <c r="G5">
-        <v>0.0007954616566727737</v>
+        <v>0.002506890053935495</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.109779875825154</v>
+        <v>1.853518474428881</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9889987831953491</v>
+        <v>0.4543730635860825</v>
       </c>
       <c r="N5">
-        <v>1.137783732119615</v>
+        <v>1.832703532822933</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1072470952827302</v>
+        <v>0.03795716780361147</v>
       </c>
       <c r="D6">
-        <v>0.05291824250485178</v>
+        <v>0.08464922936565245</v>
       </c>
       <c r="E6">
-        <v>0.07713490724433925</v>
+        <v>0.03796276474302118</v>
       </c>
       <c r="F6">
-        <v>2.138194282403859</v>
+        <v>2.00028460430056</v>
       </c>
       <c r="G6">
-        <v>0.000795931627124744</v>
+        <v>0.002507182440279953</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.078603925580239</v>
+        <v>1.845810635263092</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.9815209326869905</v>
+        <v>0.4525318036908246</v>
       </c>
       <c r="N6">
-        <v>1.139101932593235</v>
+        <v>1.833233004149299</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1130443208311078</v>
+        <v>0.0394900675915153</v>
       </c>
       <c r="D7">
-        <v>0.05309459896519542</v>
+        <v>0.08456524784125463</v>
       </c>
       <c r="E7">
-        <v>0.08110687407168271</v>
+        <v>0.03892569654333755</v>
       </c>
       <c r="F7">
-        <v>2.220055990903077</v>
+        <v>2.016894927735677</v>
       </c>
       <c r="G7">
-        <v>0.0007926830786301657</v>
+        <v>0.002505171032754488</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.295752713350907</v>
+        <v>1.899426124023364</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.03362127556354</v>
+        <v>0.4653412530010357</v>
       </c>
       <c r="N7">
-        <v>1.130137149583419</v>
+        <v>1.829614529882669</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.139196171898476</v>
+        <v>0.04630091416186133</v>
       </c>
       <c r="D8">
-        <v>0.05427888401329284</v>
+        <v>0.08429113008216405</v>
       </c>
       <c r="E8">
-        <v>0.09919289387756081</v>
+        <v>0.04324373277054505</v>
       </c>
       <c r="F8">
-        <v>2.596482041365022</v>
+        <v>2.093356606572712</v>
       </c>
       <c r="G8">
-        <v>0.0007786614902119979</v>
+        <v>0.002496740986160235</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.275396237578605</v>
+        <v>2.138897489665908</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.269081213797151</v>
+        <v>0.5225976582091505</v>
       </c>
       <c r="N8">
-        <v>1.095467647861085</v>
+        <v>1.815055344888989</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.193363693888827</v>
+        <v>0.05983720648880819</v>
       </c>
       <c r="D9">
-        <v>0.05846463827707282</v>
+        <v>0.08410712409052223</v>
       </c>
       <c r="E9">
-        <v>0.1374239866237552</v>
+        <v>0.05197202544043478</v>
       </c>
       <c r="F9">
-        <v>3.406624275993124</v>
+        <v>2.254936329797005</v>
       </c>
       <c r="G9">
-        <v>0.0007520477633246783</v>
+        <v>0.002481798881615559</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.304356306984516</v>
+        <v>2.619264845396856</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.758662503693273</v>
+        <v>0.6376198606821362</v>
       </c>
       <c r="N9">
-        <v>1.048562055375413</v>
+        <v>1.791633774062859</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.235880000341254</v>
+        <v>0.06990584160188007</v>
       </c>
       <c r="D10">
-        <v>0.06315356073738343</v>
+        <v>0.08419398476627293</v>
       </c>
       <c r="E10">
-        <v>0.1680754483638864</v>
+        <v>0.0585569139738169</v>
       </c>
       <c r="F10">
-        <v>4.065784177483863</v>
+        <v>2.381014701380536</v>
       </c>
       <c r="G10">
-        <v>0.0007327522505361189</v>
+        <v>0.00247177709500929</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.896568027295871</v>
+        <v>2.97919999010287</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.144462562908359</v>
+        <v>0.7239186152899748</v>
       </c>
       <c r="N10">
-        <v>1.031014171782587</v>
+        <v>1.777615608614099</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2560784429892493</v>
+        <v>0.07451619938737508</v>
       </c>
       <c r="D11">
-        <v>0.06577380456992188</v>
+        <v>0.08428316271416492</v>
       </c>
       <c r="E11">
-        <v>0.1828215846026424</v>
+        <v>0.06159290872731304</v>
       </c>
       <c r="F11">
-        <v>4.385125326865506</v>
+        <v>2.440030815242295</v>
       </c>
       <c r="G11">
-        <v>0.0007239526446235143</v>
+        <v>0.002467422836409678</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.652909378849699</v>
+        <v>3.144566635144372</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.328184908394206</v>
+        <v>0.7635942300331067</v>
       </c>
       <c r="N11">
-        <v>1.027843767720398</v>
+        <v>1.771944835545114</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2638778373506909</v>
+        <v>0.07626658067854919</v>
       </c>
       <c r="D12">
-        <v>0.06685063240823297</v>
+        <v>0.08432419396745416</v>
       </c>
       <c r="E12">
-        <v>0.1885465344877417</v>
+        <v>0.06274861697752243</v>
       </c>
       <c r="F12">
-        <v>4.509432978218086</v>
+        <v>2.462622466457077</v>
       </c>
       <c r="G12">
-        <v>0.0007206093136321484</v>
+        <v>0.002465803218428819</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.944954403610666</v>
+        <v>3.207428742711159</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.399201594432782</v>
+        <v>0.7786805034048001</v>
       </c>
       <c r="N12">
-        <v>1.027454620035115</v>
+        <v>1.769900177398085</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2621909025794906</v>
+        <v>0.07588939945358675</v>
       </c>
       <c r="D13">
-        <v>0.06661468955147853</v>
+        <v>0.08431503226285031</v>
       </c>
       <c r="E13">
-        <v>0.1873068349562317</v>
+        <v>0.06249944222687986</v>
       </c>
       <c r="F13">
-        <v>4.482500311818569</v>
+        <v>2.457746046940599</v>
       </c>
       <c r="G13">
-        <v>0.0007213299976596963</v>
+        <v>0.002466150734501448</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.88178805963588</v>
+        <v>3.193879417403309</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.383837851594237</v>
+        <v>0.7754286174600509</v>
       </c>
       <c r="N13">
-        <v>1.027500174444782</v>
+        <v>1.770335942440525</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2567169079831331</v>
+        <v>0.07466011211205625</v>
       </c>
       <c r="D14">
-        <v>0.06586060565598473</v>
+        <v>0.0842863921532313</v>
       </c>
       <c r="E14">
-        <v>0.1832895910760186</v>
+        <v>0.061687867158561</v>
       </c>
       <c r="F14">
-        <v>4.395280725077697</v>
+        <v>2.441884537357538</v>
       </c>
       <c r="G14">
-        <v>0.0007236778606093664</v>
+        <v>0.002467289004222055</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.676816539169351</v>
+        <v>3.149733461460471</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.333996837893906</v>
+        <v>0.7648341337037863</v>
       </c>
       <c r="N14">
-        <v>1.027794718514826</v>
+        <v>1.771774554300251</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2533844548750039</v>
+        <v>0.07390773559311015</v>
       </c>
       <c r="D15">
-        <v>0.0654102103569727</v>
+        <v>0.08426979851743965</v>
       </c>
       <c r="E15">
-        <v>0.1808481082146187</v>
+        <v>0.06119154755114664</v>
       </c>
       <c r="F15">
-        <v>4.342315515761328</v>
+        <v>2.432200753735998</v>
       </c>
       <c r="G15">
-        <v>0.0007251142847811058</v>
+        <v>0.002467990030571039</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.552033413537117</v>
+        <v>3.122724427107983</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.303664664653908</v>
+        <v>0.7583528347610127</v>
       </c>
       <c r="N15">
-        <v>1.028084765904438</v>
+        <v>1.772669161265512</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2345794628302258</v>
+        <v>0.06960516735455258</v>
       </c>
       <c r="D16">
-        <v>0.06299329869631975</v>
+        <v>0.08418916634264662</v>
       </c>
       <c r="E16">
-        <v>0.1671299702744307</v>
+        <v>0.05835933814490346</v>
       </c>
       <c r="F16">
-        <v>4.045353472374131</v>
+        <v>2.377191692445734</v>
       </c>
       <c r="G16">
-        <v>0.0007333262379114469</v>
+        <v>0.002472065758684244</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.847867384474057</v>
+        <v>2.968426284396628</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.132642609022255</v>
+        <v>0.7213342898726012</v>
       </c>
       <c r="N16">
-        <v>1.031327872325534</v>
+        <v>1.778000518472339</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2232807401953494</v>
+        <v>0.06697353666454831</v>
       </c>
       <c r="D17">
-        <v>0.0616447967098992</v>
+        <v>0.08415250589302303</v>
       </c>
       <c r="E17">
-        <v>0.158936519901566</v>
+        <v>0.05663239643077134</v>
       </c>
       <c r="F17">
-        <v>3.868544915186391</v>
+        <v>2.343874360340919</v>
       </c>
       <c r="G17">
-        <v>0.0007383531806278021</v>
+        <v>0.002474618379622405</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.424760534114341</v>
+        <v>2.874191805710836</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.030003016154581</v>
+        <v>0.698732971431852</v>
       </c>
       <c r="N17">
-        <v>1.034627697609338</v>
+        <v>1.781452842516501</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.216860821036704</v>
+        <v>0.06546271109304769</v>
       </c>
       <c r="D18">
-        <v>0.06091400426259241</v>
+        <v>0.08413608713484422</v>
       </c>
       <c r="E18">
-        <v>0.1542976236040161</v>
+        <v>0.05564290352611323</v>
       </c>
       <c r="F18">
-        <v>3.768642971563651</v>
+        <v>2.32486731533362</v>
       </c>
       <c r="G18">
-        <v>0.0007412430316895173</v>
+        <v>0.002476105858605401</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.184344103862429</v>
+        <v>2.820143658890402</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.971722723216132</v>
+        <v>0.6857725081482897</v>
       </c>
       <c r="N18">
-        <v>1.036970232820821</v>
+        <v>1.783504922538199</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2146999305241195</v>
+        <v>0.06495164923389041</v>
       </c>
       <c r="D19">
-        <v>0.06067387612557695</v>
+        <v>0.08413132603512707</v>
       </c>
       <c r="E19">
-        <v>0.1527389441831559</v>
+        <v>0.0553085239637312</v>
       </c>
       <c r="F19">
-        <v>3.735110115308174</v>
+        <v>2.318458549549888</v>
       </c>
       <c r="G19">
-        <v>0.0007422214437634987</v>
+        <v>0.002476612810441954</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.103420598899277</v>
+        <v>2.801869960745648</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.952112535391564</v>
+        <v>0.6813909966950291</v>
       </c>
       <c r="N19">
-        <v>1.037836465915802</v>
+        <v>1.784211088771116</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2244751704682528</v>
+        <v>0.06725338498232247</v>
       </c>
       <c r="D20">
-        <v>0.06178361177012448</v>
+        <v>0.08415592454743859</v>
       </c>
       <c r="E20">
-        <v>0.1598009240743323</v>
+        <v>0.05681583763692544</v>
       </c>
       <c r="F20">
-        <v>3.887177017838809</v>
+        <v>2.347404848643464</v>
       </c>
       <c r="G20">
-        <v>0.0007378182635517493</v>
+        <v>0.002474344654690108</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.46948952812761</v>
+        <v>2.884207338985789</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.040849263440165</v>
+        <v>0.701134847968774</v>
       </c>
       <c r="N20">
-        <v>1.034229624919803</v>
+        <v>1.781078456551683</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2583204185088164</v>
+        <v>0.07502105870403852</v>
       </c>
       <c r="D21">
-        <v>0.06607967058775444</v>
+        <v>0.08429460640631703</v>
       </c>
       <c r="E21">
-        <v>0.1844654997157775</v>
+        <v>0.06192608065533989</v>
       </c>
       <c r="F21">
-        <v>4.420802313124597</v>
+        <v>2.44653680180329</v>
       </c>
       <c r="G21">
-        <v>0.0007229886091595361</v>
+        <v>0.002466953874588532</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.736859489827452</v>
+        <v>3.162693592883954</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.348594774519157</v>
+        <v>0.7679442930468952</v>
       </c>
       <c r="N21">
-        <v>1.02768510805376</v>
+        <v>1.771349201146975</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.281335404768285</v>
+        <v>0.08012424006054175</v>
       </c>
       <c r="D22">
-        <v>0.06938973995630704</v>
+        <v>0.08442762591530339</v>
       </c>
       <c r="E22">
-        <v>0.2014224120240087</v>
+        <v>0.06530124751426314</v>
       </c>
       <c r="F22">
-        <v>4.789617179494797</v>
+        <v>2.512746878677177</v>
       </c>
       <c r="G22">
-        <v>0.0007132268979759288</v>
+        <v>0.002462293948413404</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.59864105633142</v>
+        <v>3.346110539473216</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.558310062546681</v>
+        <v>0.8119702952279511</v>
       </c>
       <c r="N22">
-        <v>1.028211927791119</v>
+        <v>1.765589989775876</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2689594460194371</v>
+        <v>0.07739807478677108</v>
       </c>
       <c r="D23">
-        <v>0.0675714421412934</v>
+        <v>0.08435271265386035</v>
       </c>
       <c r="E23">
-        <v>0.1922857330005954</v>
+        <v>0.06349655133237775</v>
       </c>
       <c r="F23">
-        <v>4.590715402065172</v>
+        <v>2.47727773617305</v>
       </c>
       <c r="G23">
-        <v>0.0007184463417718319</v>
+        <v>0.002464765512415774</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.13523196237259</v>
+        <v>3.24808611687763</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.445494006151961</v>
+        <v>0.7884390162126351</v>
       </c>
       <c r="N23">
-        <v>1.027444966493931</v>
+        <v>1.768608542152435</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2239349342280263</v>
+        <v>0.06712685892627235</v>
       </c>
       <c r="D24">
-        <v>0.06172071599247175</v>
+        <v>0.08415436447454283</v>
       </c>
       <c r="E24">
-        <v>0.1594099056992917</v>
+        <v>0.05673289345313748</v>
       </c>
       <c r="F24">
-        <v>3.878748042782519</v>
+        <v>2.345808255686791</v>
       </c>
       <c r="G24">
-        <v>0.0007380600996646097</v>
+        <v>0.002474468343694697</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.449258799609993</v>
+        <v>2.879678916631519</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.035943424840383</v>
+        <v>0.7000488558952327</v>
       </c>
       <c r="N24">
-        <v>1.034408214881879</v>
+        <v>1.781247506934264</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1783110319489083</v>
+        <v>0.05615458789809225</v>
       </c>
       <c r="D25">
-        <v>0.05708861187414982</v>
+        <v>0.08411838739754529</v>
       </c>
       <c r="E25">
-        <v>0.1267035038236557</v>
+        <v>0.04958152408476835</v>
       </c>
       <c r="F25">
-        <v>3.177875465230869</v>
+        <v>2.209951052228888</v>
       </c>
       <c r="G25">
-        <v>0.0007591793318082565</v>
+        <v>0.002485672290086935</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.74057156291974</v>
+        <v>2.48811465349263</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.622382585148586</v>
+        <v>0.6061974263558199</v>
       </c>
       <c r="N25">
-        <v>1.058615599898303</v>
+        <v>1.797414401886257</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_176/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_176/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04815801081838345</v>
+        <v>0.1464464995193282</v>
       </c>
       <c r="D2">
-        <v>0.08424054524450497</v>
+        <v>0.05471095872032805</v>
       </c>
       <c r="E2">
-        <v>0.04443085484498965</v>
+        <v>0.1042525509867431</v>
       </c>
       <c r="F2">
-        <v>2.114851626990827</v>
+        <v>2.702706968637813</v>
       </c>
       <c r="G2">
-        <v>0.002494564884047172</v>
+        <v>0.0007749310352186834</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.204494428052158</v>
+        <v>5.546994050838123</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5382924935363036</v>
+        <v>1.334473312832088</v>
       </c>
       <c r="N2">
-        <v>1.811455330370194</v>
+        <v>1.087372191883929</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04278531419993215</v>
+        <v>0.1256140714907445</v>
       </c>
       <c r="D3">
-        <v>0.08441390018681716</v>
+        <v>0.05358764944864447</v>
       </c>
       <c r="E3">
-        <v>0.0410073458305682</v>
+        <v>0.08976665521911897</v>
       </c>
       <c r="F3">
-        <v>2.053386877792008</v>
+        <v>2.399598892489692</v>
       </c>
       <c r="G3">
-        <v>0.002500996984734648</v>
+        <v>0.0007858240564051004</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.015053012493297</v>
+        <v>4.766606616456784</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4929787337973153</v>
+        <v>1.146710190728086</v>
       </c>
       <c r="N3">
-        <v>1.822283627367696</v>
+        <v>1.11235109630752</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03950802919261776</v>
+        <v>0.1131124328012305</v>
       </c>
       <c r="D4">
-        <v>0.0845643176267501</v>
+        <v>0.05309686842091565</v>
       </c>
       <c r="E4">
-        <v>0.03893700104591247</v>
+        <v>0.08115362550444871</v>
       </c>
       <c r="F4">
-        <v>2.017091007264014</v>
+        <v>2.221021467671576</v>
       </c>
       <c r="G4">
-        <v>0.002505147741458703</v>
+        <v>0.0007926452483244135</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.900055044942292</v>
+        <v>4.29830406262397</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4654915336702103</v>
+        <v>1.034233626647385</v>
       </c>
       <c r="N4">
-        <v>1.829572956835449</v>
+        <v>1.130034783210903</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03817774873766666</v>
+        <v>0.1080794168864969</v>
       </c>
       <c r="D5">
-        <v>0.08463657251753887</v>
+        <v>0.05294149302199713</v>
       </c>
       <c r="E5">
-        <v>0.03810110082769214</v>
+        <v>0.07770428777117999</v>
       </c>
       <c r="F5">
-        <v>2.002659378696222</v>
+        <v>2.149908695865179</v>
       </c>
       <c r="G5">
-        <v>0.002506890053935495</v>
+        <v>0.0007954616566737729</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.853518474428881</v>
+        <v>4.109779875825154</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4543730635860825</v>
+        <v>0.9889987831953704</v>
       </c>
       <c r="N5">
-        <v>1.832703532822933</v>
+        <v>1.137783732119701</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03795716780361147</v>
+        <v>0.1072470952825171</v>
       </c>
       <c r="D6">
-        <v>0.08464922936565245</v>
+        <v>0.05291824250475941</v>
       </c>
       <c r="E6">
-        <v>0.03796276474302118</v>
+        <v>0.07713490724432859</v>
       </c>
       <c r="F6">
-        <v>2.00028460430056</v>
+        <v>2.138194282403859</v>
       </c>
       <c r="G6">
-        <v>0.002507182440279953</v>
+        <v>0.0007959316271281486</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.845810635263092</v>
+        <v>4.078603925580012</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4525318036908246</v>
+        <v>0.9815209326870047</v>
       </c>
       <c r="N6">
-        <v>1.833233004149299</v>
+        <v>1.139101932593235</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0394900675915153</v>
+        <v>0.113044320831321</v>
       </c>
       <c r="D7">
-        <v>0.08456524784125463</v>
+        <v>0.053094598965302</v>
       </c>
       <c r="E7">
-        <v>0.03892569654333755</v>
+        <v>0.08110687407159389</v>
       </c>
       <c r="F7">
-        <v>2.016894927735677</v>
+        <v>2.220055990903106</v>
       </c>
       <c r="G7">
-        <v>0.002505171032754488</v>
+        <v>0.0007926830785152954</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.899426124023364</v>
+        <v>4.295752713351021</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4653412530010357</v>
+        <v>1.033621275563533</v>
       </c>
       <c r="N7">
-        <v>1.829614529882669</v>
+        <v>1.130137149583319</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04630091416186133</v>
+        <v>0.1391961718982486</v>
       </c>
       <c r="D8">
-        <v>0.08429113008216405</v>
+        <v>0.05427888401330705</v>
       </c>
       <c r="E8">
-        <v>0.04324373277054505</v>
+        <v>0.09919289387758567</v>
       </c>
       <c r="F8">
-        <v>2.093356606572712</v>
+        <v>2.596482041365022</v>
       </c>
       <c r="G8">
-        <v>0.002496740986160235</v>
+        <v>0.0007786614902102539</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.138897489665908</v>
+        <v>5.275396237578661</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5225976582091505</v>
+        <v>1.269081213797136</v>
       </c>
       <c r="N8">
-        <v>1.815055344888989</v>
+        <v>1.095467647861028</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05983720648880819</v>
+        <v>0.1933636938890686</v>
       </c>
       <c r="D9">
-        <v>0.08410712409052223</v>
+        <v>0.05846463827726467</v>
       </c>
       <c r="E9">
-        <v>0.05197202544043478</v>
+        <v>0.1374239866237517</v>
       </c>
       <c r="F9">
-        <v>2.254936329797005</v>
+        <v>3.406624275993124</v>
       </c>
       <c r="G9">
-        <v>0.002481798881615559</v>
+        <v>0.0007520477634433239</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.619264845396856</v>
+        <v>7.304356306984346</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6376198606821362</v>
+        <v>1.758662503693245</v>
       </c>
       <c r="N9">
-        <v>1.791633774062859</v>
+        <v>1.048562055375385</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06990584160188007</v>
+        <v>0.235880000340984</v>
       </c>
       <c r="D10">
-        <v>0.08419398476627293</v>
+        <v>0.06315356073738343</v>
       </c>
       <c r="E10">
-        <v>0.0585569139738169</v>
+        <v>0.1680754483639078</v>
       </c>
       <c r="F10">
-        <v>2.381014701380536</v>
+        <v>4.065784177483778</v>
       </c>
       <c r="G10">
-        <v>0.00247177709500929</v>
+        <v>0.0007327522505387894</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.97919999010287</v>
+        <v>8.8965680272957</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7239186152899748</v>
+        <v>2.144462562908359</v>
       </c>
       <c r="N10">
-        <v>1.777615608614099</v>
+        <v>1.031014171782601</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07451619938737508</v>
+        <v>0.2560784429894625</v>
       </c>
       <c r="D11">
-        <v>0.08428316271416492</v>
+        <v>0.06577380456983661</v>
       </c>
       <c r="E11">
-        <v>0.06159290872731304</v>
+        <v>0.1828215846025998</v>
       </c>
       <c r="F11">
-        <v>2.440030815242295</v>
+        <v>4.385125326865477</v>
       </c>
       <c r="G11">
-        <v>0.002467422836409678</v>
+        <v>0.0007239526445697119</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.144566635144372</v>
+        <v>9.652909378849529</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7635942300331067</v>
+        <v>2.328184908394206</v>
       </c>
       <c r="N11">
-        <v>1.771944835545114</v>
+        <v>1.027843767720483</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07626658067854919</v>
+        <v>0.2638778373509041</v>
       </c>
       <c r="D12">
-        <v>0.08432419396745416</v>
+        <v>0.06685063240809797</v>
       </c>
       <c r="E12">
-        <v>0.06274861697752243</v>
+        <v>0.1885465344876849</v>
       </c>
       <c r="F12">
-        <v>2.462622466457077</v>
+        <v>4.50943297821803</v>
       </c>
       <c r="G12">
-        <v>0.002465803218428819</v>
+        <v>0.0007206093135584381</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.207428742711159</v>
+        <v>9.944954403610609</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7786805034048001</v>
+        <v>2.399201594432768</v>
       </c>
       <c r="N12">
-        <v>1.769900177398085</v>
+        <v>1.027454620035073</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07588939945358675</v>
+        <v>0.2621909025797891</v>
       </c>
       <c r="D13">
-        <v>0.08431503226285031</v>
+        <v>0.06661468955125827</v>
       </c>
       <c r="E13">
-        <v>0.06249944222687986</v>
+        <v>0.1873068349562743</v>
       </c>
       <c r="F13">
-        <v>2.457746046940599</v>
+        <v>4.482500311818569</v>
       </c>
       <c r="G13">
-        <v>0.002466150734501448</v>
+        <v>0.0007213299976589117</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.193879417403309</v>
+        <v>9.88178805963588</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7754286174600509</v>
+        <v>2.383837851594222</v>
       </c>
       <c r="N13">
-        <v>1.770335942440525</v>
+        <v>1.027500174444768</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07466011211205625</v>
+        <v>0.2567169079831189</v>
       </c>
       <c r="D14">
-        <v>0.0842863921532313</v>
+        <v>0.06586060565599894</v>
       </c>
       <c r="E14">
-        <v>0.061687867158561</v>
+        <v>0.1832895910760257</v>
       </c>
       <c r="F14">
-        <v>2.441884537357538</v>
+        <v>4.395280725077669</v>
       </c>
       <c r="G14">
-        <v>0.002467289004222055</v>
+        <v>0.0007236778606866055</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.149733461460471</v>
+        <v>9.676816539169522</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7648341337037863</v>
+        <v>2.333996837893906</v>
       </c>
       <c r="N14">
-        <v>1.771774554300251</v>
+        <v>1.02779471851477</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07390773559311015</v>
+        <v>0.2533844548752029</v>
       </c>
       <c r="D15">
-        <v>0.08426979851743965</v>
+        <v>0.06541021035740613</v>
       </c>
       <c r="E15">
-        <v>0.06119154755114664</v>
+        <v>0.1808481082146542</v>
       </c>
       <c r="F15">
-        <v>2.432200753735998</v>
+        <v>4.3423155157613</v>
       </c>
       <c r="G15">
-        <v>0.002467990030571039</v>
+        <v>0.0007251142848902535</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.122724427107983</v>
+        <v>9.55203341353706</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7583528347610127</v>
+        <v>2.303664664653908</v>
       </c>
       <c r="N15">
-        <v>1.772669161265512</v>
+        <v>1.028084765904438</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06960516735455258</v>
+        <v>0.2345794628303963</v>
       </c>
       <c r="D16">
-        <v>0.08418916634264662</v>
+        <v>0.06299329869648318</v>
       </c>
       <c r="E16">
-        <v>0.05835933814490346</v>
+        <v>0.1671299702744236</v>
       </c>
       <c r="F16">
-        <v>2.377191692445734</v>
+        <v>4.045353472374074</v>
       </c>
       <c r="G16">
-        <v>0.002472065758684244</v>
+        <v>0.0007333262378402878</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.968426284396628</v>
+        <v>8.847867384474</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7213342898726012</v>
+        <v>2.132642609022241</v>
       </c>
       <c r="N16">
-        <v>1.778000518472339</v>
+        <v>1.031327872325534</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06697353666454831</v>
+        <v>0.2232807401953494</v>
       </c>
       <c r="D17">
-        <v>0.08415250589302303</v>
+        <v>0.06164479671026157</v>
       </c>
       <c r="E17">
-        <v>0.05663239643077134</v>
+        <v>0.158936519901566</v>
       </c>
       <c r="F17">
-        <v>2.343874360340919</v>
+        <v>3.868544915186391</v>
       </c>
       <c r="G17">
-        <v>0.002474618379622405</v>
+        <v>0.0007383531807001217</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.874191805710836</v>
+        <v>8.424760534114455</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.698732971431852</v>
+        <v>2.030003016154566</v>
       </c>
       <c r="N17">
-        <v>1.781452842516501</v>
+        <v>1.034627697609352</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06546271109304769</v>
+        <v>0.2168608210370024</v>
       </c>
       <c r="D18">
-        <v>0.08413608713484422</v>
+        <v>0.06091400426265636</v>
       </c>
       <c r="E18">
-        <v>0.05564290352611323</v>
+        <v>0.1542976236040303</v>
       </c>
       <c r="F18">
-        <v>2.32486731533362</v>
+        <v>3.768642971563651</v>
       </c>
       <c r="G18">
-        <v>0.002476105858605401</v>
+        <v>0.0007412430317007431</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.820143658890402</v>
+        <v>8.184344103862543</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6857725081482897</v>
+        <v>1.971722723216189</v>
       </c>
       <c r="N18">
-        <v>1.783504922538199</v>
+        <v>1.036970232820806</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06495164923389041</v>
+        <v>0.2146999305240911</v>
       </c>
       <c r="D19">
-        <v>0.08413132603512707</v>
+        <v>0.06067387612514352</v>
       </c>
       <c r="E19">
-        <v>0.0553085239637312</v>
+        <v>0.1527389441831133</v>
       </c>
       <c r="F19">
-        <v>2.318458549549888</v>
+        <v>3.735110115308146</v>
       </c>
       <c r="G19">
-        <v>0.002476612810441954</v>
+        <v>0.0007422214437502191</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.801869960745648</v>
+        <v>8.10342059889922</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6813909966950291</v>
+        <v>1.952112535391564</v>
       </c>
       <c r="N19">
-        <v>1.784211088771116</v>
+        <v>1.037836465915845</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06725338498232247</v>
+        <v>0.2244751704681676</v>
       </c>
       <c r="D20">
-        <v>0.08415592454743859</v>
+        <v>0.06178361177023106</v>
       </c>
       <c r="E20">
-        <v>0.05681583763692544</v>
+        <v>0.1598009240742897</v>
       </c>
       <c r="F20">
-        <v>2.347404848643464</v>
+        <v>3.887177017838894</v>
       </c>
       <c r="G20">
-        <v>0.002474344654690108</v>
+        <v>0.0007378182634744643</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.884207338985789</v>
+        <v>8.469489528127554</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.701134847968774</v>
+        <v>2.04084926344018</v>
       </c>
       <c r="N20">
-        <v>1.781078456551683</v>
+        <v>1.034229624919703</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07502105870403852</v>
+        <v>0.2583204185087311</v>
       </c>
       <c r="D21">
-        <v>0.08429460640631703</v>
+        <v>0.06607967058788944</v>
       </c>
       <c r="E21">
-        <v>0.06192608065533989</v>
+        <v>0.1844654997158059</v>
       </c>
       <c r="F21">
-        <v>2.44653680180329</v>
+        <v>4.420802313124568</v>
       </c>
       <c r="G21">
-        <v>0.002466953874588532</v>
+        <v>0.000722988608952231</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.162693592883954</v>
+        <v>9.736859489827566</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7679442930468952</v>
+        <v>2.348594774519171</v>
       </c>
       <c r="N21">
-        <v>1.771349201146975</v>
+        <v>1.027685108053731</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08012424006054175</v>
+        <v>0.2813354047685976</v>
       </c>
       <c r="D22">
-        <v>0.08442762591530339</v>
+        <v>0.06938973995607967</v>
       </c>
       <c r="E22">
-        <v>0.06530124751426314</v>
+        <v>0.2014224120240726</v>
       </c>
       <c r="F22">
-        <v>2.512746878677177</v>
+        <v>4.789617179494826</v>
       </c>
       <c r="G22">
-        <v>0.002462293948413404</v>
+        <v>0.000713226898052374</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.346110539473216</v>
+        <v>10.59864105633147</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8119702952279511</v>
+        <v>2.558310062546724</v>
       </c>
       <c r="N22">
-        <v>1.765589989775876</v>
+        <v>1.028211927791105</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07739807478677108</v>
+        <v>0.2689594460194371</v>
       </c>
       <c r="D23">
-        <v>0.08435271265386035</v>
+        <v>0.0675714421412863</v>
       </c>
       <c r="E23">
-        <v>0.06349655133237775</v>
+        <v>0.1922857330005741</v>
       </c>
       <c r="F23">
-        <v>2.47727773617305</v>
+        <v>4.5907154020652</v>
       </c>
       <c r="G23">
-        <v>0.002464765512415774</v>
+        <v>0.0007184463418235649</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.24808611687763</v>
+        <v>10.13523196237264</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7884390162126351</v>
+        <v>2.445494006151975</v>
       </c>
       <c r="N23">
-        <v>1.768608542152435</v>
+        <v>1.027444966493945</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06712685892627235</v>
+        <v>0.2239349342275432</v>
       </c>
       <c r="D24">
-        <v>0.08415436447454283</v>
+        <v>0.06172071599231543</v>
       </c>
       <c r="E24">
-        <v>0.05673289345313748</v>
+        <v>0.1594099056992846</v>
       </c>
       <c r="F24">
-        <v>2.345808255686791</v>
+        <v>3.878748042782547</v>
       </c>
       <c r="G24">
-        <v>0.002474468343694697</v>
+        <v>0.00073806009960575</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.879678916631519</v>
+        <v>8.44925879961005</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7000488558952327</v>
+        <v>2.03594342484044</v>
       </c>
       <c r="N24">
-        <v>1.781247506934264</v>
+        <v>1.034408214881864</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05615458789809225</v>
+        <v>0.1783110319491925</v>
       </c>
       <c r="D25">
-        <v>0.08411838739754529</v>
+        <v>0.05708861187378744</v>
       </c>
       <c r="E25">
-        <v>0.04958152408476835</v>
+        <v>0.1267035038236841</v>
       </c>
       <c r="F25">
-        <v>2.209951052228888</v>
+        <v>3.177875465230898</v>
       </c>
       <c r="G25">
-        <v>0.002485672290086935</v>
+        <v>0.0007591793318068454</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.48811465349263</v>
+        <v>6.740571562919854</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6061974263558199</v>
+        <v>1.622382585148614</v>
       </c>
       <c r="N25">
-        <v>1.797414401886257</v>
+        <v>1.058615599898374</v>
       </c>
       <c r="O25">
         <v>0</v>
